--- a/backend/arena/evaluation.xlsx
+++ b/backend/arena/evaluation.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>create</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
   </si>
   <si>
     <t>False</t>
@@ -421,16 +424,18 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="4">
@@ -440,10 +445,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4">
@@ -453,10 +458,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="4">
@@ -466,10 +471,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4">

--- a/backend/arena/evaluation.xlsx
+++ b/backend/arena/evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>create</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>python.Set</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
   </si>
 </sst>
 </file>
@@ -84,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -97,6 +112,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -406,17 +424,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -428,7 +448,9 @@
         <v>1</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="4" t="s">
@@ -441,7 +463,9 @@
       <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="4" t="s">
@@ -454,7 +478,9 @@
       <c r="D3" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="4" t="s">
@@ -467,20 +493,100 @@
       <c r="D4" s="4">
         <v>35</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>7</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
